--- a/XGBoost/results/metrics_results_per_fold.xlsx
+++ b/XGBoost/results/metrics_results_per_fold.xlsx
@@ -465,16 +465,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>12.33700389431831</v>
+        <v>12.54381881082865</v>
       </c>
       <c r="C2" t="n">
-        <v>8.107374659129434</v>
+        <v>7.594019238419716</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4633295169831889</v>
+        <v>0.4552617526912216</v>
       </c>
       <c r="E2" t="n">
-        <v>0.743928725392994</v>
+        <v>0.7764092156360954</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>12.75081521705876</v>
+        <v>13.13364680488605</v>
       </c>
       <c r="C3" t="n">
-        <v>7.932124053674154</v>
+        <v>6.858439804692284</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3963811669190902</v>
+        <v>0.3843090805125511</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7471341432236274</v>
+        <v>0.8124542485683584</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +499,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>15.79174322831003</v>
+        <v>15.90765878490936</v>
       </c>
       <c r="C4" t="n">
-        <v>8.329773821160563</v>
+        <v>7.906050167101929</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2304882607729091</v>
+        <v>0.2268921792862861</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7770539985667647</v>
+        <v>0.7994902974683626</v>
       </c>
     </row>
     <row r="5">
@@ -516,16 +516,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>13.81516459493926</v>
+        <v>14.01608978618275</v>
       </c>
       <c r="C5" t="n">
-        <v>8.198138076273667</v>
+        <v>7.454226987946625</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3574039654668418</v>
+        <v>0.350374526629038</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7261772022972018</v>
+        <v>0.771379451878897</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>14.5584665308095</v>
+        <v>14.79480205401026</v>
       </c>
       <c r="C6" t="n">
-        <v>7.69643086266535</v>
+        <v>6.723099616475655</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2263869663938547</v>
+        <v>0.223118541699563</v>
       </c>
       <c r="E6" t="n">
-        <v>0.751884001791409</v>
+        <v>0.8107658827250714</v>
       </c>
     </row>
     <row r="7">
@@ -550,16 +550,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>12.88445067164874</v>
+        <v>13.02377569795859</v>
       </c>
       <c r="C7" t="n">
-        <v>7.313350619589752</v>
+        <v>6.886852475766768</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4031097077924659</v>
+        <v>0.3986916397994611</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7731554668424001</v>
+        <v>0.7969782350308294</v>
       </c>
     </row>
     <row r="8">
@@ -567,16 +567,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>12.78284032417066</v>
+        <v>13.02566376599398</v>
       </c>
       <c r="C8" t="n">
-        <v>8.022268838048852</v>
+        <v>7.480813945060782</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4173236263812359</v>
+        <v>0.4090533448349347</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7455370379606019</v>
+        <v>0.7773497906598996</v>
       </c>
     </row>
     <row r="9">
@@ -593,7 +593,7 @@
         <v>0.4026636632230943</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7999989709351822</v>
+        <v>0.7999989709351824</v>
       </c>
     </row>
     <row r="10">
@@ -601,16 +601,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>12.07291836690421</v>
+        <v>12.41393369135231</v>
       </c>
       <c r="C10" t="n">
-        <v>8.021892558713843</v>
+        <v>7.231057898656752</v>
       </c>
       <c r="D10" t="n">
-        <v>0.450900630116577</v>
+        <v>0.4351106421169096</v>
       </c>
       <c r="E10" t="n">
-        <v>0.7297931855092192</v>
+        <v>0.7825664976959619</v>
       </c>
     </row>
     <row r="11">
@@ -638,13 +638,13 @@
         <v>13.37746884530051</v>
       </c>
       <c r="C12" t="n">
-        <v>6.478825176953116</v>
+        <v>6.47882517695312</v>
       </c>
       <c r="D12" t="n">
         <v>0.3390066430473134</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8166221268679643</v>
+        <v>0.8166221268679641</v>
       </c>
     </row>
     <row r="13">
@@ -655,13 +655,13 @@
         <v>14.68596999089521</v>
       </c>
       <c r="C13" t="n">
-        <v>7.483894901417149</v>
+        <v>7.483894901417147</v>
       </c>
       <c r="D13" t="n">
         <v>0.3061001788869893</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7866496207743232</v>
+        <v>0.7866496207743233</v>
       </c>
     </row>
     <row r="14">
@@ -672,13 +672,13 @@
         <v>13.04187805730299</v>
       </c>
       <c r="C14" t="n">
-        <v>7.132558123598554</v>
+        <v>7.132558123598558</v>
       </c>
       <c r="D14" t="n">
         <v>0.4311419996206628</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8051714236418737</v>
+        <v>0.8051714236418734</v>
       </c>
     </row>
     <row r="15">
@@ -686,16 +686,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>13.87817540794912</v>
+        <v>14.24509165985416</v>
       </c>
       <c r="C15" t="n">
-        <v>7.929305002339516</v>
+        <v>7.025791557507561</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3566720706993757</v>
+        <v>0.3464728726051141</v>
       </c>
       <c r="E15" t="n">
-        <v>0.7523894138638172</v>
+        <v>0.8068510916017271</v>
       </c>
     </row>
     <row r="16">
@@ -703,16 +703,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>12.80135332454335</v>
+        <v>12.85451988740401</v>
       </c>
       <c r="C16" t="n">
-        <v>7.971763428613487</v>
+        <v>7.854374873449105</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4182352910239246</v>
+        <v>0.4170884915666744</v>
       </c>
       <c r="E16" t="n">
-        <v>0.7513471498824664</v>
+        <v>0.7591949970159523</v>
       </c>
     </row>
     <row r="17">
@@ -720,16 +720,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>14.07780424753825</v>
+        <v>14.164763768514</v>
       </c>
       <c r="C17" t="n">
-        <v>6.957194029179568</v>
+        <v>6.772060381955445</v>
       </c>
       <c r="D17" t="n">
-        <v>0.28465465540196</v>
+        <v>0.2793147131561083</v>
       </c>
       <c r="E17" t="n">
-        <v>0.7880421755809426</v>
+        <v>0.7993811067057396</v>
       </c>
     </row>
     <row r="18">
@@ -737,16 +737,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>12.64634000412141</v>
+        <v>13.14530305669765</v>
       </c>
       <c r="C18" t="n">
-        <v>8.093613003386935</v>
+        <v>6.80501924564077</v>
       </c>
       <c r="D18" t="n">
-        <v>0.4115823524165645</v>
+        <v>0.3958939791448184</v>
       </c>
       <c r="E18" t="n">
-        <v>0.7339299638700554</v>
+        <v>0.8114967119216219</v>
       </c>
     </row>
     <row r="19">
@@ -754,16 +754,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>14.57902409331967</v>
+        <v>14.92989328654126</v>
       </c>
       <c r="C19" t="n">
-        <v>8.338688229370147</v>
+        <v>7.484238453047829</v>
       </c>
       <c r="D19" t="n">
-        <v>0.3002621978218497</v>
+        <v>0.2912574049248132</v>
       </c>
       <c r="E19" t="n">
-        <v>0.7348762914070966</v>
+        <v>0.7867343949850794</v>
       </c>
     </row>
     <row r="20">
@@ -771,16 +771,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>14.33266984091865</v>
+        <v>14.93923031681716</v>
       </c>
       <c r="C20" t="n">
-        <v>8.084634360753732</v>
+        <v>6.788485428239215</v>
       </c>
       <c r="D20" t="n">
-        <v>0.3052277000595307</v>
+        <v>0.291760780917143</v>
       </c>
       <c r="E20" t="n">
-        <v>0.7490118395607337</v>
+        <v>0.8255624228547767</v>
       </c>
     </row>
     <row r="21">
@@ -791,13 +791,13 @@
         <v>13.00741205311785</v>
       </c>
       <c r="C21" t="n">
-        <v>6.917131577117765</v>
+        <v>6.917131577117767</v>
       </c>
       <c r="D21" t="n">
         <v>0.3217480398261957</v>
       </c>
       <c r="E21" t="n">
-        <v>0.7707289281693382</v>
+        <v>0.7707289281693381</v>
       </c>
     </row>
     <row r="22">
@@ -805,16 +805,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>13.84047164534566</v>
+        <v>14.19885555544593</v>
       </c>
       <c r="C22" t="n">
-        <v>8.327502477275699</v>
+        <v>7.474406012465691</v>
       </c>
       <c r="D22" t="n">
-        <v>0.3625553859036288</v>
+        <v>0.3553471977615136</v>
       </c>
       <c r="E22" t="n">
-        <v>0.7197399844756213</v>
+        <v>0.7745966134313964</v>
       </c>
     </row>
     <row r="23">
@@ -822,16 +822,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>15.40525722264646</v>
+        <v>15.72573242091894</v>
       </c>
       <c r="C23" t="n">
-        <v>8.35357663785121</v>
+        <v>7.544708892943198</v>
       </c>
       <c r="D23" t="n">
-        <v>0.2036565153646632</v>
+        <v>0.1961945553138114</v>
       </c>
       <c r="E23" t="n">
-        <v>0.7138238678073807</v>
+        <v>0.7657319447561127</v>
       </c>
     </row>
     <row r="24">
@@ -839,16 +839,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>14.04531955001946</v>
+        <v>14.32981093844077</v>
       </c>
       <c r="C24" t="n">
-        <v>7.415112583695841</v>
+        <v>6.736542696671919</v>
       </c>
       <c r="D24" t="n">
-        <v>0.3050909696814786</v>
+        <v>0.296278223596077</v>
       </c>
       <c r="E24" t="n">
-        <v>0.7752959462260801</v>
+        <v>0.8141586477213159</v>
       </c>
     </row>
     <row r="25">
@@ -856,16 +856,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>12.14163231608844</v>
+        <v>12.6015845549227</v>
       </c>
       <c r="C25" t="n">
-        <v>8.165696591187462</v>
+        <v>7.117712378883031</v>
       </c>
       <c r="D25" t="n">
-        <v>0.3757646549536459</v>
+        <v>0.3602536321009455</v>
       </c>
       <c r="E25" t="n">
-        <v>0.6958036205671121</v>
+        <v>0.772296816033371</v>
       </c>
     </row>
     <row r="26">
@@ -873,16 +873,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>13.11966659083511</v>
+        <v>13.26932004003814</v>
       </c>
       <c r="C26" t="n">
-        <v>7.947247989924263</v>
+        <v>7.595469769177949</v>
       </c>
       <c r="D26" t="n">
-        <v>0.4101611650969813</v>
+        <v>0.4064849788772659</v>
       </c>
       <c r="E26" t="n">
-        <v>0.746531856560564</v>
+        <v>0.7688829334443845</v>
       </c>
     </row>
     <row r="27">
@@ -890,16 +890,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>12.98546361923218</v>
+        <v>13.20175196907737</v>
       </c>
       <c r="C27" t="n">
-        <v>7.079475269496292</v>
+        <v>6.658859937609188</v>
       </c>
       <c r="D27" t="n">
-        <v>0.4351787996673115</v>
+        <v>0.4282139831819587</v>
       </c>
       <c r="E27" t="n">
-        <v>0.7946950351193307</v>
+        <v>0.816558515150122</v>
       </c>
     </row>
     <row r="28">
@@ -907,16 +907,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>13.41658316718208</v>
+        <v>13.47794349747475</v>
       </c>
       <c r="C28" t="n">
-        <v>8.10572423930266</v>
+        <v>7.924227528440444</v>
       </c>
       <c r="D28" t="n">
-        <v>0.3693117286777478</v>
+        <v>0.3668391991998941</v>
       </c>
       <c r="E28" t="n">
-        <v>0.7523794039065166</v>
+        <v>0.7627751528877279</v>
       </c>
     </row>
     <row r="29">
@@ -924,16 +924,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>12.87001392094776</v>
+        <v>13.03189718843711</v>
       </c>
       <c r="C29" t="n">
-        <v>8.199805599654393</v>
+        <v>7.500413240909223</v>
       </c>
       <c r="D29" t="n">
-        <v>0.4498657700343403</v>
+        <v>0.4395733719070525</v>
       </c>
       <c r="E29" t="n">
-        <v>0.7539065821059573</v>
+        <v>0.7922085695799402</v>
       </c>
     </row>
     <row r="30">
@@ -944,7 +944,7 @@
         <v>13.05467425933992</v>
       </c>
       <c r="C30" t="n">
-        <v>8.162697595851199</v>
+        <v>8.162697595851201</v>
       </c>
       <c r="D30" t="n">
         <v>0.4138046716925138</v>
@@ -958,16 +958,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>12.95299810833401</v>
+        <v>13.35310724046495</v>
       </c>
       <c r="C31" t="n">
-        <v>8.217151741773202</v>
+        <v>6.897288648413774</v>
       </c>
       <c r="D31" t="n">
-        <v>0.338528529466926</v>
+        <v>0.3223393629236728</v>
       </c>
       <c r="E31" t="n">
-        <v>0.6984188875626103</v>
+        <v>0.7851278942339445</v>
       </c>
     </row>
     <row r="32">
@@ -975,16 +975,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>13.99075178275431</v>
+        <v>14.41729601523034</v>
       </c>
       <c r="C32" t="n">
-        <v>7.645108163036835</v>
+        <v>6.620674052695122</v>
       </c>
       <c r="D32" t="n">
-        <v>0.3250954486887681</v>
+        <v>0.3054073277157771</v>
       </c>
       <c r="E32" t="n">
-        <v>0.7739122840799295</v>
+        <v>0.8307100988516162</v>
       </c>
     </row>
     <row r="33">
@@ -992,16 +992,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>12.71014758518764</v>
+        <v>12.97110787011627</v>
       </c>
       <c r="C33" t="n">
-        <v>7.953831977789648</v>
+        <v>7.174655029347577</v>
       </c>
       <c r="D33" t="n">
-        <v>0.3753439112905602</v>
+        <v>0.3665967617005311</v>
       </c>
       <c r="E33" t="n">
-        <v>0.7248509597201293</v>
+        <v>0.7767398373605096</v>
       </c>
     </row>
     <row r="34">
@@ -1009,16 +1009,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>15.99408058415081</v>
+        <v>16.04201968391438</v>
       </c>
       <c r="C34" t="n">
-        <v>7.478774409211248</v>
+        <v>7.312611389014696</v>
       </c>
       <c r="D34" t="n">
-        <v>0.2329268700439189</v>
+        <v>0.2326731075347075</v>
       </c>
       <c r="E34" t="n">
-        <v>0.7956498010186477</v>
+        <v>0.8049864767022463</v>
       </c>
     </row>
     <row r="35">
@@ -1029,13 +1029,13 @@
         <v>13.25091649546768</v>
       </c>
       <c r="C35" t="n">
-        <v>6.79535901605964</v>
+        <v>6.795359016059642</v>
       </c>
       <c r="D35" t="n">
         <v>0.4114573597443502</v>
       </c>
       <c r="E35" t="n">
-        <v>0.8108852747053784</v>
+        <v>0.8108852747053783</v>
       </c>
     </row>
     <row r="36">
@@ -1043,16 +1043,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>12.95171986204205</v>
+        <v>13.3634006615841</v>
       </c>
       <c r="C36" t="n">
-        <v>7.620974245474112</v>
+        <v>6.74915426739889</v>
       </c>
       <c r="D36" t="n">
-        <v>0.3624216872433507</v>
+        <v>0.351439076263235</v>
       </c>
       <c r="E36" t="n">
-        <v>0.7305701177058253</v>
+        <v>0.7880360788548344</v>
       </c>
     </row>
     <row r="37">
@@ -1063,13 +1063,13 @@
         <v>12.48750028224907</v>
       </c>
       <c r="C37" t="n">
-        <v>7.377729027064613</v>
+        <v>7.377729027064616</v>
       </c>
       <c r="D37" t="n">
         <v>0.4328843895892305</v>
       </c>
       <c r="E37" t="n">
-        <v>0.7730287771019229</v>
+        <v>0.7730287771019226</v>
       </c>
     </row>
     <row r="38">
@@ -1080,13 +1080,13 @@
         <v>13.02298457694776</v>
       </c>
       <c r="C38" t="n">
-        <v>7.033109166629011</v>
+        <v>7.033109166629014</v>
       </c>
       <c r="D38" t="n">
         <v>0.3786601487081798</v>
       </c>
       <c r="E38" t="n">
-        <v>0.7876890126929326</v>
+        <v>0.7876890126929323</v>
       </c>
     </row>
     <row r="39">
@@ -1094,16 +1094,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>14.75117698823563</v>
+        <v>15.30451256819446</v>
       </c>
       <c r="C39" t="n">
-        <v>8.742330996828914</v>
+        <v>7.243858612868084</v>
       </c>
       <c r="D39" t="n">
-        <v>0.2555325091527619</v>
+        <v>0.2417128480473554</v>
       </c>
       <c r="E39" t="n">
-        <v>0.7068956889849711</v>
+        <v>0.79847897121744</v>
       </c>
     </row>
     <row r="40">
@@ -1111,16 +1111,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>12.931161923842</v>
+        <v>13.12761163711548</v>
       </c>
       <c r="C40" t="n">
-        <v>7.833923440622307</v>
+        <v>7.291907839533363</v>
       </c>
       <c r="D40" t="n">
-        <v>0.3544107451017606</v>
+        <v>0.3501466602802669</v>
       </c>
       <c r="E40" t="n">
-        <v>0.7365815516031093</v>
+        <v>0.7708495716832364</v>
       </c>
     </row>
     <row r="41">
@@ -1128,16 +1128,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>13.33802975066985</v>
+        <v>13.48309836724792</v>
       </c>
       <c r="C41" t="n">
-        <v>8.12253621848842</v>
+        <v>7.645767195643058</v>
       </c>
       <c r="D41" t="n">
-        <v>0.4238868518329847</v>
+        <v>0.4181062310963408</v>
       </c>
       <c r="E41" t="n">
-        <v>0.7570088206104544</v>
+        <v>0.7837700678004673</v>
       </c>
     </row>
     <row r="42">
@@ -1145,16 +1145,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>12.72514166867823</v>
+        <v>12.89485795157296</v>
       </c>
       <c r="C42" t="n">
-        <v>7.485633875639579</v>
+        <v>7.175054275937075</v>
       </c>
       <c r="D42" t="n">
-        <v>0.4457331109806014</v>
+        <v>0.4361044736424797</v>
       </c>
       <c r="E42" t="n">
-        <v>0.7879095343252369</v>
+        <v>0.8056804873196186</v>
       </c>
     </row>
     <row r="43">
@@ -1162,16 +1162,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>13.39066054169695</v>
+        <v>13.53055907132333</v>
       </c>
       <c r="C43" t="n">
-        <v>8.252310437469331</v>
+        <v>7.950467736665611</v>
       </c>
       <c r="D43" t="n">
-        <v>0.4011935427172418</v>
+        <v>0.3960974828958701</v>
       </c>
       <c r="E43" t="n">
-        <v>0.7311525214320638</v>
+        <v>0.7504011688421073</v>
       </c>
     </row>
     <row r="44">
@@ -1179,16 +1179,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>14.06234985963444</v>
+        <v>14.17404712112924</v>
       </c>
       <c r="C44" t="n">
-        <v>8.405529818031194</v>
+        <v>8.075400362048537</v>
       </c>
       <c r="D44" t="n">
-        <v>0.366161964411336</v>
+        <v>0.3624777572132958</v>
       </c>
       <c r="E44" t="n">
-        <v>0.745648393927656</v>
+        <v>0.7646962109231179</v>
       </c>
     </row>
     <row r="45">
@@ -1196,16 +1196,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>13.7453470808087</v>
+        <v>13.95672395012596</v>
       </c>
       <c r="C45" t="n">
-        <v>7.978733708852734</v>
+        <v>7.498753289771866</v>
       </c>
       <c r="D45" t="n">
-        <v>0.3948227792945951</v>
+        <v>0.3867711727485961</v>
       </c>
       <c r="E45" t="n">
-        <v>0.7686235421542893</v>
+        <v>0.7971489208590015</v>
       </c>
     </row>
     <row r="46">
@@ -1213,16 +1213,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>13.20795094364821</v>
+        <v>13.41192438144876</v>
       </c>
       <c r="C46" t="n">
-        <v>8.084903608963259</v>
+        <v>7.576913085970793</v>
       </c>
       <c r="D46" t="n">
-        <v>0.3819620486127178</v>
+        <v>0.3761294197773787</v>
       </c>
       <c r="E46" t="n">
-        <v>0.7154169206386295</v>
+        <v>0.7505414007950177</v>
       </c>
     </row>
     <row r="47">
@@ -1230,16 +1230,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>13.43627682117501</v>
+        <v>13.66022573336206</v>
       </c>
       <c r="C47" t="n">
-        <v>8.367696289778502</v>
+        <v>7.56426737907913</v>
       </c>
       <c r="D47" t="n">
-        <v>0.3432944635446002</v>
+        <v>0.3338831609550572</v>
       </c>
       <c r="E47" t="n">
-        <v>0.7239916756067726</v>
+        <v>0.7738660345584918</v>
       </c>
     </row>
     <row r="48">
@@ -1247,16 +1247,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>13.59185978378912</v>
+        <v>13.84629111819797</v>
       </c>
       <c r="C48" t="n">
-        <v>7.292221887449472</v>
+        <v>6.631976775683148</v>
       </c>
       <c r="D48" t="n">
-        <v>0.3002520681629113</v>
+        <v>0.296148910797329</v>
       </c>
       <c r="E48" t="n">
-        <v>0.7631360528914061</v>
+        <v>0.803893917207541</v>
       </c>
     </row>
     <row r="49">
@@ -1273,7 +1273,7 @@
         <v>0.3513562418005174</v>
       </c>
       <c r="E49" t="n">
-        <v>0.7928751512261057</v>
+        <v>0.7928751512261059</v>
       </c>
     </row>
     <row r="50">
@@ -1281,16 +1281,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>13.68433496205494</v>
+        <v>14.09066602437183</v>
       </c>
       <c r="C50" t="n">
-        <v>7.933102153930228</v>
+        <v>6.669232350898512</v>
       </c>
       <c r="D50" t="n">
-        <v>0.3393741906335229</v>
+        <v>0.329793994420736</v>
       </c>
       <c r="E50" t="n">
-        <v>0.7466422259718861</v>
+        <v>0.8192302942052485</v>
       </c>
     </row>
     <row r="51">
@@ -1307,7 +1307,7 @@
         <v>0.3564212294951329</v>
       </c>
       <c r="E51" t="n">
-        <v>0.7873514640467795</v>
+        <v>0.7873514640467796</v>
       </c>
     </row>
     <row r="52">
@@ -1315,16 +1315,16 @@
         <v>51</v>
       </c>
       <c r="B52" t="n">
-        <v>12.98207966606121</v>
+        <v>13.57705475752216</v>
       </c>
       <c r="C52" t="n">
-        <v>7.896342049616567</v>
+        <v>6.635488312320055</v>
       </c>
       <c r="D52" t="n">
-        <v>0.3885237873129178</v>
+        <v>0.3650370482227193</v>
       </c>
       <c r="E52" t="n">
-        <v>0.7467395158517389</v>
+        <v>0.8240922466368468</v>
       </c>
     </row>
     <row r="53">
@@ -1332,16 +1332,16 @@
         <v>52</v>
       </c>
       <c r="B53" t="n">
-        <v>12.48164755359927</v>
+        <v>12.54488685913851</v>
       </c>
       <c r="C53" t="n">
-        <v>7.581638992920453</v>
+        <v>7.37367749273819</v>
       </c>
       <c r="D53" t="n">
-        <v>0.4079748016158086</v>
+        <v>0.4060394725238743</v>
       </c>
       <c r="E53" t="n">
-        <v>0.7475879681105284</v>
+        <v>0.7616294911827249</v>
       </c>
     </row>
     <row r="54">
@@ -1349,16 +1349,16 @@
         <v>53</v>
       </c>
       <c r="B54" t="n">
-        <v>14.4518293079577</v>
+        <v>14.97737725336749</v>
       </c>
       <c r="C54" t="n">
-        <v>7.997439479083902</v>
+        <v>7.010279905756565</v>
       </c>
       <c r="D54" t="n">
-        <v>0.3411115568229045</v>
+        <v>0.3284459105615649</v>
       </c>
       <c r="E54" t="n">
-        <v>0.7504437403209321</v>
+        <v>0.8077653465234405</v>
       </c>
     </row>
     <row r="55">
@@ -1386,13 +1386,13 @@
         <v>13.60022672499069</v>
       </c>
       <c r="C56" t="n">
-        <v>7.256127676432954</v>
+        <v>7.256127676432956</v>
       </c>
       <c r="D56" t="n">
         <v>0.372225831734323</v>
       </c>
       <c r="E56" t="n">
-        <v>0.7877765629100379</v>
+        <v>0.7877765629100378</v>
       </c>
     </row>
     <row r="57">
@@ -1403,13 +1403,13 @@
         <v>14.65993983817823</v>
       </c>
       <c r="C57" t="n">
-        <v>7.111423287029333</v>
+        <v>7.111423287029329</v>
       </c>
       <c r="D57" t="n">
         <v>0.248950352775353</v>
       </c>
       <c r="E57" t="n">
-        <v>0.7950987875932554</v>
+        <v>0.7950987875932556</v>
       </c>
     </row>
     <row r="58">
@@ -1420,7 +1420,7 @@
         <v>13.53656584807116</v>
       </c>
       <c r="C58" t="n">
-        <v>7.252164529687677</v>
+        <v>7.252164529687678</v>
       </c>
       <c r="D58" t="n">
         <v>0.3311790910635692</v>
@@ -1434,16 +1434,16 @@
         <v>58</v>
       </c>
       <c r="B59" t="n">
-        <v>14.02393228357488</v>
+        <v>14.13863317894213</v>
       </c>
       <c r="C59" t="n">
-        <v>7.988249134682675</v>
+        <v>7.550488982535754</v>
       </c>
       <c r="D59" t="n">
-        <v>0.3752115858979874</v>
+        <v>0.3724540281187079</v>
       </c>
       <c r="E59" t="n">
-        <v>0.7774244058957321</v>
+        <v>0.800645303366833</v>
       </c>
     </row>
     <row r="60">
@@ -1451,16 +1451,16 @@
         <v>59</v>
       </c>
       <c r="B60" t="n">
-        <v>13.48986973907008</v>
+        <v>13.60483529350974</v>
       </c>
       <c r="C60" t="n">
-        <v>7.265206296591268</v>
+        <v>7.007374885826276</v>
       </c>
       <c r="D60" t="n">
-        <v>0.3303069139836922</v>
+        <v>0.3284911796024717</v>
       </c>
       <c r="E60" t="n">
-        <v>0.7677189277913132</v>
+        <v>0.785149638533393</v>
       </c>
     </row>
     <row r="61">
@@ -1468,16 +1468,16 @@
         <v>60</v>
       </c>
       <c r="B61" t="n">
-        <v>12.60811096249205</v>
+        <v>13.4161086804939</v>
       </c>
       <c r="C61" t="n">
-        <v>7.790417101184551</v>
+        <v>6.31299280284103</v>
       </c>
       <c r="D61" t="n">
-        <v>0.4410764103286242</v>
+        <v>0.409610749277421</v>
       </c>
       <c r="E61" t="n">
-        <v>0.7518318540976641</v>
+        <v>0.8384656565062891</v>
       </c>
     </row>
     <row r="62">
@@ -1485,16 +1485,16 @@
         <v>61</v>
       </c>
       <c r="B62" t="n">
-        <v>13.43428075881231</v>
+        <v>13.91992872042166</v>
       </c>
       <c r="C62" t="n">
-        <v>8.612488362298933</v>
+        <v>7.271157386914767</v>
       </c>
       <c r="D62" t="n">
-        <v>0.3549164691160912</v>
+        <v>0.3385343826976733</v>
       </c>
       <c r="E62" t="n">
-        <v>0.7119069402624492</v>
+        <v>0.7944967801232452</v>
       </c>
     </row>
     <row r="63">
@@ -1528,7 +1528,7 @@
         <v>0.3632000831547567</v>
       </c>
       <c r="E64" t="n">
-        <v>0.7688665461172589</v>
+        <v>0.7688665461172588</v>
       </c>
     </row>
     <row r="65">
@@ -1536,16 +1536,16 @@
         <v>64</v>
       </c>
       <c r="B65" t="n">
-        <v>12.28603426615397</v>
+        <v>12.82571239182443</v>
       </c>
       <c r="C65" t="n">
-        <v>8.171294584153744</v>
+        <v>6.993035552785232</v>
       </c>
       <c r="D65" t="n">
-        <v>0.4035405224548829</v>
+        <v>0.3848066269271662</v>
       </c>
       <c r="E65" t="n">
-        <v>0.6960772912736561</v>
+        <v>0.7745048115544972</v>
       </c>
     </row>
     <row r="66">
@@ -1553,16 +1553,16 @@
         <v>65</v>
       </c>
       <c r="B66" t="n">
-        <v>13.6406962221319</v>
+        <v>13.91951936664003</v>
       </c>
       <c r="C66" t="n">
-        <v>7.872163002837303</v>
+        <v>6.964594674932148</v>
       </c>
       <c r="D66" t="n">
-        <v>0.3081566163554633</v>
+        <v>0.298986351725809</v>
       </c>
       <c r="E66" t="n">
-        <v>0.7366007637111696</v>
+        <v>0.7932011933324615</v>
       </c>
     </row>
     <row r="67">
@@ -1570,16 +1570,16 @@
         <v>66</v>
       </c>
       <c r="B67" t="n">
-        <v>12.94852904599122</v>
+        <v>13.24483051203718</v>
       </c>
       <c r="C67" t="n">
-        <v>7.829198310906856</v>
+        <v>7.250545088417017</v>
       </c>
       <c r="D67" t="n">
-        <v>0.4377812462536435</v>
+        <v>0.4239533730258218</v>
       </c>
       <c r="E67" t="n">
-        <v>0.7538429995001463</v>
+        <v>0.7876142284403316</v>
       </c>
     </row>
     <row r="68">
@@ -1587,16 +1587,16 @@
         <v>67</v>
       </c>
       <c r="B68" t="n">
-        <v>13.80537878864943</v>
+        <v>14.16328001503993</v>
       </c>
       <c r="C68" t="n">
-        <v>8.126664973529174</v>
+        <v>7.33818549268225</v>
       </c>
       <c r="D68" t="n">
-        <v>0.3635802507906338</v>
+        <v>0.3487466627808572</v>
       </c>
       <c r="E68" t="n">
-        <v>0.7534074425057945</v>
+        <v>0.7987651079105653</v>
       </c>
     </row>
     <row r="69">
@@ -1621,16 +1621,16 @@
         <v>69</v>
       </c>
       <c r="B70" t="n">
-        <v>13.64735335533065</v>
+        <v>13.73952162867845</v>
       </c>
       <c r="C70" t="n">
-        <v>7.413286445486031</v>
+        <v>7.203069493419622</v>
       </c>
       <c r="D70" t="n">
-        <v>0.3314820451700208</v>
+        <v>0.3296797885404835</v>
       </c>
       <c r="E70" t="n">
-        <v>0.7536228842697453</v>
+        <v>0.7675489276925543</v>
       </c>
     </row>
     <row r="71">
@@ -1638,16 +1638,16 @@
         <v>70</v>
       </c>
       <c r="B71" t="n">
-        <v>14.28665528152928</v>
+        <v>14.72055614355839</v>
       </c>
       <c r="C71" t="n">
-        <v>9.003592741706745</v>
+        <v>7.563679557823603</v>
       </c>
       <c r="D71" t="n">
-        <v>0.3023724021294554</v>
+        <v>0.2848362337716788</v>
       </c>
       <c r="E71" t="n">
-        <v>0.6913281384840739</v>
+        <v>0.7785714671666206</v>
       </c>
     </row>
     <row r="72">
@@ -1655,16 +1655,16 @@
         <v>71</v>
       </c>
       <c r="B72" t="n">
-        <v>13.79273784130737</v>
+        <v>14.16300916552245</v>
       </c>
       <c r="C72" t="n">
-        <v>7.853666010093476</v>
+        <v>7.06453286679506</v>
       </c>
       <c r="D72" t="n">
-        <v>0.3238475970234752</v>
+        <v>0.3132755104820392</v>
       </c>
       <c r="E72" t="n">
-        <v>0.735048247099515</v>
+        <v>0.7875554839412016</v>
       </c>
     </row>
     <row r="73">
@@ -1672,16 +1672,16 @@
         <v>72</v>
       </c>
       <c r="B73" t="n">
-        <v>12.47077858716922</v>
+        <v>12.78547410319622</v>
       </c>
       <c r="C73" t="n">
-        <v>7.869189514397343</v>
+        <v>7.119634576104832</v>
       </c>
       <c r="D73" t="n">
-        <v>0.4267917291972941</v>
+        <v>0.417106194487851</v>
       </c>
       <c r="E73" t="n">
-        <v>0.7372610525842727</v>
+        <v>0.7865322868700897</v>
       </c>
     </row>
     <row r="74">
@@ -1692,13 +1692,13 @@
         <v>12.85605281456969</v>
       </c>
       <c r="C74" t="n">
-        <v>6.894102941989728</v>
+        <v>6.894102941989725</v>
       </c>
       <c r="D74" t="n">
         <v>0.4022616063450626</v>
       </c>
       <c r="E74" t="n">
-        <v>0.8032047148111781</v>
+        <v>0.8032047148111783</v>
       </c>
     </row>
     <row r="75">
@@ -1706,16 +1706,16 @@
         <v>74</v>
       </c>
       <c r="B75" t="n">
-        <v>14.7960728298534</v>
+        <v>15.01373934023308</v>
       </c>
       <c r="C75" t="n">
-        <v>8.195325145468876</v>
+        <v>7.453515299002969</v>
       </c>
       <c r="D75" t="n">
-        <v>0.2895648215443745</v>
+        <v>0.2808437357087855</v>
       </c>
       <c r="E75" t="n">
-        <v>0.7537945189102827</v>
+        <v>0.7977028856186553</v>
       </c>
     </row>
     <row r="76">
@@ -1726,13 +1726,13 @@
         <v>13.81925165291988</v>
       </c>
       <c r="C76" t="n">
-        <v>7.117980195059417</v>
+        <v>7.117980195059415</v>
       </c>
       <c r="D76" t="n">
         <v>0.2845891233348884</v>
       </c>
       <c r="E76" t="n">
-        <v>0.7871911624300789</v>
+        <v>0.7871911624300792</v>
       </c>
     </row>
     <row r="77">
@@ -1740,16 +1740,16 @@
         <v>76</v>
       </c>
       <c r="B77" t="n">
-        <v>13.81114614852751</v>
+        <v>14.34997907311025</v>
       </c>
       <c r="C77" t="n">
-        <v>7.82714617796533</v>
+        <v>6.838898708278585</v>
       </c>
       <c r="D77" t="n">
-        <v>0.3660331673519946</v>
+        <v>0.3459136465608533</v>
       </c>
       <c r="E77" t="n">
-        <v>0.7710464080944277</v>
+        <v>0.8261244651588997</v>
       </c>
     </row>
     <row r="78">
@@ -1757,16 +1757,16 @@
         <v>77</v>
       </c>
       <c r="B78" t="n">
-        <v>14.20512106442692</v>
+        <v>14.6601642791671</v>
       </c>
       <c r="C78" t="n">
-        <v>7.474386053447683</v>
+        <v>6.577725958736871</v>
       </c>
       <c r="D78" t="n">
-        <v>0.3448129518218253</v>
+        <v>0.3349183179522746</v>
       </c>
       <c r="E78" t="n">
-        <v>0.7749908014234876</v>
+        <v>0.8273670856800038</v>
       </c>
     </row>
     <row r="79">
@@ -1774,16 +1774,16 @@
         <v>78</v>
       </c>
       <c r="B79" t="n">
-        <v>13.33131236741037</v>
+        <v>13.51671176968199</v>
       </c>
       <c r="C79" t="n">
-        <v>7.151961061676253</v>
+        <v>6.692938783341572</v>
       </c>
       <c r="D79" t="n">
-        <v>0.3133260801711441</v>
+        <v>0.3064632903279078</v>
       </c>
       <c r="E79" t="n">
-        <v>0.7694874453189717</v>
+        <v>0.7986323321730386</v>
       </c>
     </row>
     <row r="80">
@@ -1791,16 +1791,16 @@
         <v>79</v>
       </c>
       <c r="B80" t="n">
-        <v>14.08508724636502</v>
+        <v>14.47414093788224</v>
       </c>
       <c r="C80" t="n">
-        <v>8.984246334977056</v>
+        <v>7.6680714117926</v>
       </c>
       <c r="D80" t="n">
-        <v>0.4060799548660231</v>
+        <v>0.3868098218786269</v>
       </c>
       <c r="E80" t="n">
-        <v>0.7213057723359479</v>
+        <v>0.7921224642689185</v>
       </c>
     </row>
     <row r="81">
@@ -1808,16 +1808,16 @@
         <v>80</v>
       </c>
       <c r="B81" t="n">
-        <v>12.08392304121846</v>
+        <v>12.16827708542949</v>
       </c>
       <c r="C81" t="n">
-        <v>7.993991156699211</v>
+        <v>7.690714707960573</v>
       </c>
       <c r="D81" t="n">
-        <v>0.4719751342575152</v>
+        <v>0.4684310159283886</v>
       </c>
       <c r="E81" t="n">
-        <v>0.7573675257452528</v>
+        <v>0.7754957308005112</v>
       </c>
     </row>
     <row r="82">
@@ -1825,16 +1825,16 @@
         <v>81</v>
       </c>
       <c r="B82" t="n">
-        <v>13.95353585436828</v>
+        <v>14.59859108028555</v>
       </c>
       <c r="C82" t="n">
-        <v>8.037287265572619</v>
+        <v>6.475224694896712</v>
       </c>
       <c r="D82" t="n">
-        <v>0.2802924453498326</v>
+        <v>0.2642272602362958</v>
       </c>
       <c r="E82" t="n">
-        <v>0.7260676160840303</v>
+        <v>0.8263203850772195</v>
       </c>
     </row>
     <row r="83">
@@ -1842,16 +1842,16 @@
         <v>82</v>
       </c>
       <c r="B83" t="n">
-        <v>15.52655169838353</v>
+        <v>15.89070703033218</v>
       </c>
       <c r="C83" t="n">
-        <v>8.122355541435462</v>
+        <v>7.163239981259275</v>
       </c>
       <c r="D83" t="n">
-        <v>0.2503069761964825</v>
+        <v>0.2436336744790741</v>
       </c>
       <c r="E83" t="n">
-        <v>0.7464373960966395</v>
+        <v>0.8032080592360945</v>
       </c>
     </row>
     <row r="84">
@@ -1859,16 +1859,16 @@
         <v>83</v>
       </c>
       <c r="B84" t="n">
-        <v>11.79171411136637</v>
+        <v>12.03628829248567</v>
       </c>
       <c r="C84" t="n">
-        <v>7.683304378014681</v>
+        <v>7.068738832901476</v>
       </c>
       <c r="D84" t="n">
-        <v>0.4712847788480304</v>
+        <v>0.460853071792881</v>
       </c>
       <c r="E84" t="n">
-        <v>0.7460221617109379</v>
+        <v>0.7839373034635424</v>
       </c>
     </row>
     <row r="85">
@@ -1876,16 +1876,16 @@
         <v>84</v>
       </c>
       <c r="B85" t="n">
-        <v>12.76998046431878</v>
+        <v>12.97910826615613</v>
       </c>
       <c r="C85" t="n">
-        <v>7.010702732910271</v>
+        <v>6.49040530719198</v>
       </c>
       <c r="D85" t="n">
-        <v>0.3849954650121176</v>
+        <v>0.3781541446327703</v>
       </c>
       <c r="E85" t="n">
-        <v>0.7824007533444853</v>
+        <v>0.8137330056545273</v>
       </c>
     </row>
     <row r="86">
@@ -1910,16 +1910,16 @@
         <v>86</v>
       </c>
       <c r="B87" t="n">
-        <v>12.83519683703028</v>
+        <v>13.08872670356673</v>
       </c>
       <c r="C87" t="n">
-        <v>7.801727698466321</v>
+        <v>6.944073327329804</v>
       </c>
       <c r="D87" t="n">
-        <v>0.4647508687960916</v>
+        <v>0.454199585887324</v>
       </c>
       <c r="E87" t="n">
-        <v>0.784822104260712</v>
+        <v>0.8270470231598879</v>
       </c>
     </row>
     <row r="88">
@@ -1944,16 +1944,16 @@
         <v>88</v>
       </c>
       <c r="B89" t="n">
-        <v>13.44280681224785</v>
+        <v>13.6571486405652</v>
       </c>
       <c r="C89" t="n">
-        <v>8.59303986766211</v>
+        <v>7.890332022747998</v>
       </c>
       <c r="D89" t="n">
-        <v>0.35444430523383</v>
+        <v>0.3466454385851022</v>
       </c>
       <c r="E89" t="n">
-        <v>0.703359728917775</v>
+        <v>0.7475147324012781</v>
       </c>
     </row>
     <row r="90">
@@ -1964,13 +1964,13 @@
         <v>15.02412337004536</v>
       </c>
       <c r="C90" t="n">
-        <v>8.519595118317788</v>
+        <v>8.519595118317792</v>
       </c>
       <c r="D90" t="n">
         <v>0.3088621650478297</v>
       </c>
       <c r="E90" t="n">
-        <v>0.7410170070764636</v>
+        <v>0.7410170070764633</v>
       </c>
     </row>
     <row r="91">
@@ -1998,13 +1998,13 @@
         <v>13.18469766984906</v>
       </c>
       <c r="C92" t="n">
-        <v>7.434608269554351</v>
+        <v>7.434608269554352</v>
       </c>
       <c r="D92" t="n">
         <v>0.3393868494599304</v>
       </c>
       <c r="E92" t="n">
-        <v>0.7653566297599692</v>
+        <v>0.765356629759969</v>
       </c>
     </row>
     <row r="93">
@@ -2012,16 +2012,16 @@
         <v>92</v>
       </c>
       <c r="B93" t="n">
-        <v>12.08051342115665</v>
+        <v>12.3015005403294</v>
       </c>
       <c r="C93" t="n">
-        <v>7.142566082626616</v>
+        <v>6.634667542601276</v>
       </c>
       <c r="D93" t="n">
-        <v>0.4289829220189448</v>
+        <v>0.4190700095397429</v>
       </c>
       <c r="E93" t="n">
-        <v>0.7908634499157656</v>
+        <v>0.8220173544098764</v>
       </c>
     </row>
     <row r="94">
@@ -2029,16 +2029,16 @@
         <v>93</v>
       </c>
       <c r="B94" t="n">
-        <v>14.25494927810248</v>
+        <v>14.75107942547715</v>
       </c>
       <c r="C94" t="n">
-        <v>8.232618673177326</v>
+        <v>6.811976374705385</v>
       </c>
       <c r="D94" t="n">
-        <v>0.2906695348309942</v>
+        <v>0.2770924007368071</v>
       </c>
       <c r="E94" t="n">
-        <v>0.714384239998417</v>
+        <v>0.8027173731041451</v>
       </c>
     </row>
     <row r="95">
@@ -2049,13 +2049,13 @@
         <v>13.54913444230051</v>
       </c>
       <c r="C95" t="n">
-        <v>7.327574627456116</v>
+        <v>7.327574627456114</v>
       </c>
       <c r="D95" t="n">
         <v>0.4008327719931734</v>
       </c>
       <c r="E95" t="n">
-        <v>0.7841781386092247</v>
+        <v>0.7841781386092248</v>
       </c>
     </row>
     <row r="96">
@@ -2063,16 +2063,16 @@
         <v>95</v>
       </c>
       <c r="B96" t="n">
-        <v>14.87986756816055</v>
+        <v>15.07957428151911</v>
       </c>
       <c r="C96" t="n">
-        <v>8.006755878504105</v>
+        <v>7.622758841651447</v>
       </c>
       <c r="D96" t="n">
-        <v>0.3373169150145485</v>
+        <v>0.3319065026401447</v>
       </c>
       <c r="E96" t="n">
-        <v>0.7599192794674082</v>
+        <v>0.782835391047534</v>
       </c>
     </row>
     <row r="97">
@@ -2080,16 +2080,16 @@
         <v>96</v>
       </c>
       <c r="B97" t="n">
-        <v>14.45046751908582</v>
+        <v>14.4936991653057</v>
       </c>
       <c r="C97" t="n">
-        <v>8.630350845921862</v>
+        <v>8.41429694815487</v>
       </c>
       <c r="D97" t="n">
-        <v>0.3299211146093666</v>
+        <v>0.3278066493907277</v>
       </c>
       <c r="E97" t="n">
-        <v>0.7353605952259838</v>
+        <v>0.7479754112311775</v>
       </c>
     </row>
     <row r="98">
@@ -2097,16 +2097,16 @@
         <v>97</v>
       </c>
       <c r="B98" t="n">
-        <v>14.04335982871778</v>
+        <v>14.23077982122248</v>
       </c>
       <c r="C98" t="n">
-        <v>8.103129289680995</v>
+        <v>7.64941674660173</v>
       </c>
       <c r="D98" t="n">
-        <v>0.3796465340511683</v>
+        <v>0.3728068432323438</v>
       </c>
       <c r="E98" t="n">
-        <v>0.7709823759850425</v>
+        <v>0.7957314547990393</v>
       </c>
     </row>
     <row r="99">
@@ -2114,16 +2114,16 @@
         <v>98</v>
       </c>
       <c r="B99" t="n">
-        <v>11.01398012854836</v>
+        <v>11.28602614547267</v>
       </c>
       <c r="C99" t="n">
-        <v>6.994967692924265</v>
+        <v>6.488567225907265</v>
       </c>
       <c r="D99" t="n">
-        <v>0.4792548815390434</v>
+        <v>0.4695112051135866</v>
       </c>
       <c r="E99" t="n">
-        <v>0.7787468928253976</v>
+        <v>0.8134008448080636</v>
       </c>
     </row>
     <row r="100">
@@ -2131,16 +2131,16 @@
         <v>99</v>
       </c>
       <c r="B100" t="n">
-        <v>14.75406152551824</v>
+        <v>15.14009348551432</v>
       </c>
       <c r="C100" t="n">
-        <v>7.690810248184756</v>
+        <v>6.269723369464437</v>
       </c>
       <c r="D100" t="n">
-        <v>0.2555588323131022</v>
+        <v>0.244544786590029</v>
       </c>
       <c r="E100" t="n">
-        <v>0.7486629881178051</v>
+        <v>0.8306859004653295</v>
       </c>
     </row>
     <row r="101">
@@ -2148,16 +2148,16 @@
         <v>100</v>
       </c>
       <c r="B101" t="n">
-        <v>13.50142976972792</v>
+        <v>13.72189522752858</v>
       </c>
       <c r="C101" t="n">
-        <v>7.298818347175255</v>
+        <v>6.713930417201555</v>
       </c>
       <c r="D101" t="n">
-        <v>0.3494926644999592</v>
+        <v>0.3450548005122004</v>
       </c>
       <c r="E101" t="n">
-        <v>0.770345982119274</v>
+        <v>0.8048233171893389</v>
       </c>
     </row>
     <row r="102">
@@ -2165,16 +2165,16 @@
         <v>101</v>
       </c>
       <c r="B102" t="n">
-        <v>12.60777814764726</v>
+        <v>12.98783480135122</v>
       </c>
       <c r="C102" t="n">
-        <v>7.180356633471504</v>
+        <v>6.410736297719142</v>
       </c>
       <c r="D102" t="n">
-        <v>0.360399094745827</v>
+        <v>0.3467898362217612</v>
       </c>
       <c r="E102" t="n">
-        <v>0.7619984297631806</v>
+        <v>0.8099941722543376</v>
       </c>
     </row>
     <row r="103">
@@ -2182,16 +2182,16 @@
         <v>102</v>
       </c>
       <c r="B103" t="n">
-        <v>15.09653550819646</v>
+        <v>15.42202873994832</v>
       </c>
       <c r="C103" t="n">
-        <v>8.560650120062105</v>
+        <v>7.765229093831303</v>
       </c>
       <c r="D103" t="n">
-        <v>0.3210416093671499</v>
+        <v>0.3129624239404211</v>
       </c>
       <c r="E103" t="n">
-        <v>0.7501317939922316</v>
+        <v>0.7955845904837233</v>
       </c>
     </row>
     <row r="104">
@@ -2199,16 +2199,16 @@
         <v>103</v>
       </c>
       <c r="B104" t="n">
-        <v>13.75221882965929</v>
+        <v>14.38803495918599</v>
       </c>
       <c r="C104" t="n">
-        <v>8.544018591459015</v>
+        <v>6.583351433262298</v>
       </c>
       <c r="D104" t="n">
-        <v>0.3010176105395476</v>
+        <v>0.2700044454595437</v>
       </c>
       <c r="E104" t="n">
-        <v>0.7219142601693487</v>
+        <v>0.8346322851969603</v>
       </c>
     </row>
     <row r="105">
@@ -2219,7 +2219,7 @@
         <v>14.17582183895689</v>
       </c>
       <c r="C105" t="n">
-        <v>8.499549684475559</v>
+        <v>8.499549684475557</v>
       </c>
       <c r="D105" t="n">
         <v>0.3381440742826283</v>
@@ -2233,16 +2233,16 @@
         <v>105</v>
       </c>
       <c r="B106" t="n">
-        <v>13.22889726812189</v>
+        <v>13.6486736499902</v>
       </c>
       <c r="C106" t="n">
-        <v>7.75827294929479</v>
+        <v>6.958943803536471</v>
       </c>
       <c r="D106" t="n">
-        <v>0.3611719547268438</v>
+        <v>0.352394644239883</v>
       </c>
       <c r="E106" t="n">
-        <v>0.7353753501455582</v>
+        <v>0.7880740406582745</v>
       </c>
     </row>
     <row r="107">
@@ -2250,16 +2250,16 @@
         <v>106</v>
       </c>
       <c r="B107" t="n">
-        <v>12.80102571333298</v>
+        <v>13.2991369180005</v>
       </c>
       <c r="C107" t="n">
-        <v>7.925166888444618</v>
+        <v>6.801932025719236</v>
       </c>
       <c r="D107" t="n">
-        <v>0.4323274222436272</v>
+        <v>0.4180317526949905</v>
       </c>
       <c r="E107" t="n">
-        <v>0.7541486858971556</v>
+        <v>0.817878025139759</v>
       </c>
     </row>
     <row r="108">
@@ -2267,16 +2267,16 @@
         <v>107</v>
       </c>
       <c r="B108" t="n">
-        <v>13.97768232557509</v>
+        <v>14.37599402726299</v>
       </c>
       <c r="C108" t="n">
-        <v>7.591829557845879</v>
+        <v>6.707768040050191</v>
       </c>
       <c r="D108" t="n">
-        <v>0.318095261964265</v>
+        <v>0.3038265347292062</v>
       </c>
       <c r="E108" t="n">
-        <v>0.7596640984020449</v>
+        <v>0.8123204213423607</v>
       </c>
     </row>
     <row r="109">
@@ -2284,16 +2284,16 @@
         <v>108</v>
       </c>
       <c r="B109" t="n">
-        <v>13.20524827880089</v>
+        <v>13.58248133611198</v>
       </c>
       <c r="C109" t="n">
-        <v>8.233556537299606</v>
+        <v>6.766337838191149</v>
       </c>
       <c r="D109" t="n">
-        <v>0.3632144040022529</v>
+        <v>0.3497296265218179</v>
       </c>
       <c r="E109" t="n">
-        <v>0.7107975580915054</v>
+        <v>0.801963405713264</v>
       </c>
     </row>
     <row r="110">
@@ -2301,16 +2301,16 @@
         <v>109</v>
       </c>
       <c r="B110" t="n">
-        <v>12.67926810004494</v>
+        <v>13.09152094523112</v>
       </c>
       <c r="C110" t="n">
-        <v>7.870107311853118</v>
+        <v>7.007510560037891</v>
       </c>
       <c r="D110" t="n">
-        <v>0.4104755825482755</v>
+        <v>0.3917258287650673</v>
       </c>
       <c r="E110" t="n">
-        <v>0.7262945169853403</v>
+        <v>0.7826913888920806</v>
       </c>
     </row>
     <row r="111">
@@ -2335,16 +2335,16 @@
         <v>111</v>
       </c>
       <c r="B112" t="n">
-        <v>13.65460037766841</v>
+        <v>14.24422128337965</v>
       </c>
       <c r="C112" t="n">
-        <v>8.269450126363338</v>
+        <v>6.83013823946373</v>
       </c>
       <c r="D112" t="n">
-        <v>0.3691051642366703</v>
+        <v>0.3461353338398573</v>
       </c>
       <c r="E112" t="n">
-        <v>0.7375225669045511</v>
+        <v>0.8218999068046611</v>
       </c>
     </row>
     <row r="113">
@@ -2352,16 +2352,16 @@
         <v>112</v>
       </c>
       <c r="B113" t="n">
-        <v>14.49828753076998</v>
+        <v>14.52225490082476</v>
       </c>
       <c r="C113" t="n">
-        <v>8.547083717889567</v>
+        <v>8.467315845541274</v>
       </c>
       <c r="D113" t="n">
-        <v>0.3657134619952637</v>
+        <v>0.3656976625569314</v>
       </c>
       <c r="E113" t="n">
-        <v>0.7375542967167341</v>
+        <v>0.742312198246118</v>
       </c>
     </row>
     <row r="114">
@@ -2369,16 +2369,16 @@
         <v>113</v>
       </c>
       <c r="B114" t="n">
-        <v>14.27575540184078</v>
+        <v>14.54096538859202</v>
       </c>
       <c r="C114" t="n">
-        <v>8.077675064755082</v>
+        <v>7.501007375465828</v>
       </c>
       <c r="D114" t="n">
-        <v>0.3369500035137144</v>
+        <v>0.3304652479189703</v>
       </c>
       <c r="E114" t="n">
-        <v>0.74569112982686</v>
+        <v>0.7809219579456292</v>
       </c>
     </row>
     <row r="115">
@@ -2386,16 +2386,16 @@
         <v>114</v>
       </c>
       <c r="B115" t="n">
-        <v>13.11665978094544</v>
+        <v>13.59175554429642</v>
       </c>
       <c r="C115" t="n">
-        <v>8.315388251617678</v>
+        <v>7.21219702466265</v>
       </c>
       <c r="D115" t="n">
-        <v>0.3525543861188579</v>
+        <v>0.338558925738198</v>
       </c>
       <c r="E115" t="n">
-        <v>0.7220224313861281</v>
+        <v>0.7931528652608646</v>
       </c>
     </row>
     <row r="116">
@@ -2403,16 +2403,16 @@
         <v>115</v>
       </c>
       <c r="B116" t="n">
-        <v>13.54719225565592</v>
+        <v>13.72945700269757</v>
       </c>
       <c r="C116" t="n">
-        <v>6.987557477644505</v>
+        <v>6.409718797898864</v>
       </c>
       <c r="D116" t="n">
-        <v>0.2339516515230821</v>
+        <v>0.2293731097594012</v>
       </c>
       <c r="E116" t="n">
-        <v>0.7794606321012025</v>
+        <v>0.814959049515974</v>
       </c>
     </row>
     <row r="117">
@@ -2420,16 +2420,16 @@
         <v>116</v>
       </c>
       <c r="B117" t="n">
-        <v>12.70290917579574</v>
+        <v>12.98100716658313</v>
       </c>
       <c r="C117" t="n">
-        <v>7.929356830598302</v>
+        <v>7.108058075752695</v>
       </c>
       <c r="D117" t="n">
-        <v>0.3988063286503389</v>
+        <v>0.3893063749250473</v>
       </c>
       <c r="E117" t="n">
-        <v>0.7502677128749815</v>
+        <v>0.7973707851525903</v>
       </c>
     </row>
     <row r="118">
@@ -2437,16 +2437,16 @@
         <v>117</v>
       </c>
       <c r="B118" t="n">
-        <v>12.98342218784371</v>
+        <v>13.33674936101894</v>
       </c>
       <c r="C118" t="n">
-        <v>7.666190527242827</v>
+        <v>6.669933168275795</v>
       </c>
       <c r="D118" t="n">
-        <v>0.3447651149945801</v>
+        <v>0.334922816765723</v>
       </c>
       <c r="E118" t="n">
-        <v>0.7351047316659253</v>
+        <v>0.8009332711991252</v>
       </c>
     </row>
     <row r="119">
@@ -2454,16 +2454,16 @@
         <v>118</v>
       </c>
       <c r="B119" t="n">
-        <v>14.6555678146054</v>
+        <v>14.98604685850818</v>
       </c>
       <c r="C119" t="n">
-        <v>8.407908754838058</v>
+        <v>7.203581122979932</v>
       </c>
       <c r="D119" t="n">
-        <v>0.348763930072661</v>
+        <v>0.3377548309729712</v>
       </c>
       <c r="E119" t="n">
-        <v>0.7522664179977943</v>
+        <v>0.8159789383492465</v>
       </c>
     </row>
     <row r="120">
@@ -2471,16 +2471,16 @@
         <v>119</v>
       </c>
       <c r="B120" t="n">
-        <v>12.76863924662272</v>
+        <v>12.90075167742643</v>
       </c>
       <c r="C120" t="n">
-        <v>7.779853131780821</v>
+        <v>7.438398301220932</v>
       </c>
       <c r="D120" t="n">
-        <v>0.4264704732439445</v>
+        <v>0.4214577926970628</v>
       </c>
       <c r="E120" t="n">
-        <v>0.7534767288783286</v>
+        <v>0.7741911807961975</v>
       </c>
     </row>
     <row r="121">
@@ -2488,16 +2488,16 @@
         <v>120</v>
       </c>
       <c r="B121" t="n">
-        <v>12.70094262710725</v>
+        <v>13.11372369226783</v>
       </c>
       <c r="C121" t="n">
-        <v>7.52699319551191</v>
+        <v>6.74822597762178</v>
       </c>
       <c r="D121" t="n">
-        <v>0.3933062153847037</v>
+        <v>0.3850249014355269</v>
       </c>
       <c r="E121" t="n">
-        <v>0.7417779779852255</v>
+        <v>0.7951092835134826</v>
       </c>
     </row>
     <row r="122">
@@ -2508,7 +2508,7 @@
         <v>12.38537989642686</v>
       </c>
       <c r="C122" t="n">
-        <v>7.607788050250477</v>
+        <v>7.607788050250474</v>
       </c>
       <c r="D122" t="n">
         <v>0.3956178380188359</v>
@@ -2522,16 +2522,16 @@
         <v>122</v>
       </c>
       <c r="B123" t="n">
-        <v>14.25189528787943</v>
+        <v>14.39754719841749</v>
       </c>
       <c r="C123" t="n">
-        <v>8.457038566415381</v>
+        <v>8.026154744146947</v>
       </c>
       <c r="D123" t="n">
-        <v>0.3418187028059521</v>
+        <v>0.3366932293612526</v>
       </c>
       <c r="E123" t="n">
-        <v>0.7432710894419639</v>
+        <v>0.7680885632473824</v>
       </c>
     </row>
     <row r="124">
@@ -2539,16 +2539,16 @@
         <v>123</v>
       </c>
       <c r="B124" t="n">
-        <v>12.88998797423858</v>
+        <v>13.63591971433252</v>
       </c>
       <c r="C124" t="n">
-        <v>7.607083739996217</v>
+        <v>5.894782439472886</v>
       </c>
       <c r="D124" t="n">
-        <v>0.3751572980462112</v>
+        <v>0.3465396921177812</v>
       </c>
       <c r="E124" t="n">
-        <v>0.7537606740657424</v>
+        <v>0.8505007053920915</v>
       </c>
     </row>
     <row r="125">
@@ -2556,16 +2556,16 @@
         <v>124</v>
       </c>
       <c r="B125" t="n">
-        <v>15.48723404335253</v>
+        <v>15.54785971208052</v>
       </c>
       <c r="C125" t="n">
-        <v>7.582813676083886</v>
+        <v>7.295133103033748</v>
       </c>
       <c r="D125" t="n">
-        <v>0.2141662370101511</v>
+        <v>0.2126982366900062</v>
       </c>
       <c r="E125" t="n">
-        <v>0.7813501963342888</v>
+        <v>0.7974566034403104</v>
       </c>
     </row>
     <row r="126">
@@ -2576,13 +2576,13 @@
         <v>12.44215672907203</v>
       </c>
       <c r="C126" t="n">
-        <v>6.661510025368652</v>
+        <v>6.661510025368653</v>
       </c>
       <c r="D126" t="n">
         <v>0.3899370931754819</v>
       </c>
       <c r="E126" t="n">
-        <v>0.8106460171914345</v>
+        <v>0.8106460171914346</v>
       </c>
     </row>
     <row r="127">
@@ -2590,16 +2590,16 @@
         <v>126</v>
       </c>
       <c r="B127" t="n">
-        <v>14.01253924225316</v>
+        <v>14.13684839190859</v>
       </c>
       <c r="C127" t="n">
-        <v>7.180319137780912</v>
+        <v>6.878209595746656</v>
       </c>
       <c r="D127" t="n">
-        <v>0.3045884247032827</v>
+        <v>0.3014579717433011</v>
       </c>
       <c r="E127" t="n">
-        <v>0.7866388576029821</v>
+        <v>0.8039018358744201</v>
       </c>
     </row>
     <row r="128">
@@ -2607,16 +2607,16 @@
         <v>127</v>
       </c>
       <c r="B128" t="n">
-        <v>14.83446732434359</v>
+        <v>15.04816173784661</v>
       </c>
       <c r="C128" t="n">
-        <v>8.429810214011532</v>
+        <v>7.900266888629727</v>
       </c>
       <c r="D128" t="n">
-        <v>0.3392749375740426</v>
+        <v>0.3327078553156547</v>
       </c>
       <c r="E128" t="n">
-        <v>0.7440937507225813</v>
+        <v>0.7745573857974631</v>
       </c>
     </row>
     <row r="129">
@@ -2624,16 +2624,16 @@
         <v>128</v>
       </c>
       <c r="B129" t="n">
-        <v>13.12660981187917</v>
+        <v>13.39580575865929</v>
       </c>
       <c r="C129" t="n">
-        <v>8.100441646898624</v>
+        <v>7.50122366845774</v>
       </c>
       <c r="D129" t="n">
-        <v>0.4109565611447094</v>
+        <v>0.4027919642719722</v>
       </c>
       <c r="E129" t="n">
-        <v>0.7415965783055101</v>
+        <v>0.7783787136078507</v>
       </c>
     </row>
     <row r="130">
@@ -2641,16 +2641,16 @@
         <v>129</v>
       </c>
       <c r="B130" t="n">
-        <v>12.90835546724724</v>
+        <v>12.99888573270855</v>
       </c>
       <c r="C130" t="n">
-        <v>7.9365900889994</v>
+        <v>7.643941101007914</v>
       </c>
       <c r="D130" t="n">
-        <v>0.4340791414735229</v>
+        <v>0.4312301877329191</v>
       </c>
       <c r="E130" t="n">
-        <v>0.757596743003798</v>
+        <v>0.7745277928935181</v>
       </c>
     </row>
     <row r="131">
@@ -2658,16 +2658,16 @@
         <v>130</v>
       </c>
       <c r="B131" t="n">
-        <v>13.74103671372539</v>
+        <v>14.09082445472178</v>
       </c>
       <c r="C131" t="n">
-        <v>7.489380884877481</v>
+        <v>6.792775731442376</v>
       </c>
       <c r="D131" t="n">
-        <v>0.3133355568851955</v>
+        <v>0.3032534983001507</v>
       </c>
       <c r="E131" t="n">
-        <v>0.7493955411020505</v>
+        <v>0.795955364172212</v>
       </c>
     </row>
     <row r="132">
@@ -2675,16 +2675,16 @@
         <v>131</v>
       </c>
       <c r="B132" t="n">
-        <v>13.38833042135215</v>
+        <v>13.62511620963725</v>
       </c>
       <c r="C132" t="n">
-        <v>8.108124524927927</v>
+        <v>7.523688003506329</v>
       </c>
       <c r="D132" t="n">
-        <v>0.4126979334157429</v>
+        <v>0.4076441026466153</v>
       </c>
       <c r="E132" t="n">
-        <v>0.7512285580934647</v>
+        <v>0.7876715519017703</v>
       </c>
     </row>
     <row r="133">
@@ -2692,16 +2692,16 @@
         <v>132</v>
       </c>
       <c r="B133" t="n">
-        <v>14.04539404656355</v>
+        <v>14.7928550930549</v>
       </c>
       <c r="C133" t="n">
-        <v>7.313588830555625</v>
+        <v>6.05071312723768</v>
       </c>
       <c r="D133" t="n">
-        <v>0.2743439492147932</v>
+        <v>0.2575285097582982</v>
       </c>
       <c r="E133" t="n">
-        <v>0.7511255382170017</v>
+        <v>0.8332512971063559</v>
       </c>
     </row>
     <row r="134">
@@ -2712,7 +2712,7 @@
         <v>13.55520993665346</v>
       </c>
       <c r="C134" t="n">
-        <v>7.917532576772031</v>
+        <v>7.91753257677203</v>
       </c>
       <c r="D134" t="n">
         <v>0.3656471932566103</v>
@@ -2726,16 +2726,16 @@
         <v>134</v>
       </c>
       <c r="B135" t="n">
-        <v>13.18389858862366</v>
+        <v>13.25822675107706</v>
       </c>
       <c r="C135" t="n">
-        <v>7.646845746839356</v>
+        <v>7.381666945466652</v>
       </c>
       <c r="D135" t="n">
-        <v>0.359408475972373</v>
+        <v>0.3579511454053391</v>
       </c>
       <c r="E135" t="n">
-        <v>0.7669463741778006</v>
+        <v>0.7832367665176657</v>
       </c>
     </row>
     <row r="136">
@@ -2743,16 +2743,16 @@
         <v>135</v>
       </c>
       <c r="B136" t="n">
-        <v>13.00581050641609</v>
+        <v>13.55191213434393</v>
       </c>
       <c r="C136" t="n">
-        <v>8.667829112876628</v>
+        <v>7.34704853777022</v>
       </c>
       <c r="D136" t="n">
-        <v>0.4089873672251206</v>
+        <v>0.3843298426964963</v>
       </c>
       <c r="E136" t="n">
-        <v>0.7151656581513826</v>
+        <v>0.7909970045769911</v>
       </c>
     </row>
     <row r="137">
@@ -2777,16 +2777,16 @@
         <v>137</v>
       </c>
       <c r="B138" t="n">
-        <v>13.66974502139621</v>
+        <v>13.845488442315</v>
       </c>
       <c r="C138" t="n">
-        <v>7.111298848785104</v>
+        <v>6.638114472759438</v>
       </c>
       <c r="D138" t="n">
-        <v>0.339524181547468</v>
+        <v>0.3333853972720195</v>
       </c>
       <c r="E138" t="n">
-        <v>0.7911261305280974</v>
+        <v>0.8173949470619288</v>
       </c>
     </row>
     <row r="139">
@@ -2797,13 +2797,13 @@
         <v>13.49173426387286</v>
       </c>
       <c r="C139" t="n">
-        <v>7.614249197947287</v>
+        <v>7.614249197947284</v>
       </c>
       <c r="D139" t="n">
         <v>0.3714781240951394</v>
       </c>
       <c r="E139" t="n">
-        <v>0.7702454700775538</v>
+        <v>0.7702454700775541</v>
       </c>
     </row>
     <row r="140">
@@ -2811,16 +2811,16 @@
         <v>139</v>
       </c>
       <c r="B140" t="n">
-        <v>14.2167664778353</v>
+        <v>14.43630120730159</v>
       </c>
       <c r="C140" t="n">
-        <v>8.377096423735322</v>
+        <v>7.779580047407856</v>
       </c>
       <c r="D140" t="n">
-        <v>0.4281340969846633</v>
+        <v>0.4214950104248483</v>
       </c>
       <c r="E140" t="n">
-        <v>0.7663826558085058</v>
+        <v>0.79811574248067</v>
       </c>
     </row>
     <row r="141">
@@ -2828,16 +2828,16 @@
         <v>140</v>
       </c>
       <c r="B141" t="n">
-        <v>14.0354785341205</v>
+        <v>14.1532028949622</v>
       </c>
       <c r="C141" t="n">
-        <v>7.199853924268417</v>
+        <v>6.865273484768624</v>
       </c>
       <c r="D141" t="n">
-        <v>0.262601279216942</v>
+        <v>0.2604314405543388</v>
       </c>
       <c r="E141" t="n">
-        <v>0.776244434058311</v>
+        <v>0.7956906665930991</v>
       </c>
     </row>
     <row r="142">
@@ -2845,16 +2845,16 @@
         <v>141</v>
       </c>
       <c r="B142" t="n">
-        <v>12.91288655981384</v>
+        <v>13.24328123298205</v>
       </c>
       <c r="C142" t="n">
-        <v>8.374681262118633</v>
+        <v>7.458450284174187</v>
       </c>
       <c r="D142" t="n">
-        <v>0.4034191658565411</v>
+        <v>0.3851170439086978</v>
       </c>
       <c r="E142" t="n">
-        <v>0.7325354397743884</v>
+        <v>0.7859128490772611</v>
       </c>
     </row>
     <row r="143">
@@ -2862,16 +2862,16 @@
         <v>142</v>
       </c>
       <c r="B143" t="n">
-        <v>12.21338381564109</v>
+        <v>12.58243700376429</v>
       </c>
       <c r="C143" t="n">
-        <v>8.071289812981025</v>
+        <v>7.246027006265322</v>
       </c>
       <c r="D143" t="n">
-        <v>0.4294576593575101</v>
+        <v>0.4165832559735319</v>
       </c>
       <c r="E143" t="n">
-        <v>0.7197488075978324</v>
+        <v>0.7761085780170671</v>
       </c>
     </row>
     <row r="144">
@@ -2879,16 +2879,16 @@
         <v>143</v>
       </c>
       <c r="B144" t="n">
-        <v>14.74237857426617</v>
+        <v>15.2610551026232</v>
       </c>
       <c r="C144" t="n">
-        <v>9.118098353016039</v>
+        <v>7.075770002467632</v>
       </c>
       <c r="D144" t="n">
-        <v>0.3113315620645382</v>
+        <v>0.281700556140567</v>
       </c>
       <c r="E144" t="n">
-        <v>0.7299406557949144</v>
+        <v>0.836668985533686</v>
       </c>
     </row>
     <row r="145">
@@ -2896,16 +2896,16 @@
         <v>144</v>
       </c>
       <c r="B145" t="n">
-        <v>13.11454006156536</v>
+        <v>13.45624584621853</v>
       </c>
       <c r="C145" t="n">
-        <v>7.160680492515899</v>
+        <v>6.515453479919734</v>
       </c>
       <c r="D145" t="n">
-        <v>0.3805257946930742</v>
+        <v>0.3718942984794308</v>
       </c>
       <c r="E145" t="n">
-        <v>0.7711404451212713</v>
+        <v>0.8106788567709217</v>
       </c>
     </row>
     <row r="146">
@@ -2913,16 +2913,16 @@
         <v>145</v>
       </c>
       <c r="B146" t="n">
-        <v>14.70251613193088</v>
+        <v>15.21836443621703</v>
       </c>
       <c r="C146" t="n">
-        <v>7.520863290491221</v>
+        <v>6.483978524558154</v>
       </c>
       <c r="D146" t="n">
-        <v>0.3137162772901485</v>
+        <v>0.2969859336290326</v>
       </c>
       <c r="E146" t="n">
-        <v>0.774526334076313</v>
+        <v>0.8320247037050817</v>
       </c>
     </row>
     <row r="147">
@@ -2930,16 +2930,16 @@
         <v>146</v>
       </c>
       <c r="B147" t="n">
-        <v>14.08185599548648</v>
+        <v>14.53189074391067</v>
       </c>
       <c r="C147" t="n">
-        <v>7.47353859447363</v>
+        <v>6.26231748332672</v>
       </c>
       <c r="D147" t="n">
-        <v>0.3283129115149783</v>
+        <v>0.3162677035438011</v>
       </c>
       <c r="E147" t="n">
-        <v>0.7702007875140595</v>
+        <v>0.8382246046095401</v>
       </c>
     </row>
     <row r="148">
@@ -2950,7 +2950,7 @@
         <v>13.81336077295169</v>
       </c>
       <c r="C148" t="n">
-        <v>7.890371037524911</v>
+        <v>7.890371037524909</v>
       </c>
       <c r="D148" t="n">
         <v>0.3864978574020542</v>
@@ -2967,7 +2967,7 @@
         <v>13.9719099324159</v>
       </c>
       <c r="C149" t="n">
-        <v>7.536280772267342</v>
+        <v>7.536280772267343</v>
       </c>
       <c r="D149" t="n">
         <v>0.3279698536247732</v>
@@ -2981,16 +2981,16 @@
         <v>149</v>
       </c>
       <c r="B150" t="n">
-        <v>12.39996435666325</v>
+        <v>12.70760191811456</v>
       </c>
       <c r="C150" t="n">
-        <v>7.815204488360249</v>
+        <v>7.046199034546455</v>
       </c>
       <c r="D150" t="n">
-        <v>0.3943263030930196</v>
+        <v>0.3834851149609693</v>
       </c>
       <c r="E150" t="n">
-        <v>0.7357732792081657</v>
+        <v>0.7863401880479974</v>
       </c>
     </row>
     <row r="151">
@@ -2998,16 +2998,16 @@
         <v>150</v>
       </c>
       <c r="B151" t="n">
-        <v>13.03515489655311</v>
+        <v>13.52379284964667</v>
       </c>
       <c r="C151" t="n">
-        <v>7.521916784352936</v>
+        <v>6.64047644478953</v>
       </c>
       <c r="D151" t="n">
-        <v>0.3593339022248989</v>
+        <v>0.3422355613849284</v>
       </c>
       <c r="E151" t="n">
-        <v>0.7509873685594532</v>
+        <v>0.8078298484700785</v>
       </c>
     </row>
     <row r="152">
@@ -3015,16 +3015,16 @@
         <v>151</v>
       </c>
       <c r="B152" t="n">
-        <v>13.35108558157632</v>
+        <v>13.66766654757928</v>
       </c>
       <c r="C152" t="n">
-        <v>8.359031478227493</v>
+        <v>7.697571055999688</v>
       </c>
       <c r="D152" t="n">
-        <v>0.3538272872566955</v>
+        <v>0.3456976786665312</v>
       </c>
       <c r="E152" t="n">
-        <v>0.7250306475200125</v>
+        <v>0.7677502257637118</v>
       </c>
     </row>
     <row r="153">
@@ -3032,16 +3032,16 @@
         <v>152</v>
       </c>
       <c r="B153" t="n">
-        <v>13.52500111477118</v>
+        <v>14.0418032643789</v>
       </c>
       <c r="C153" t="n">
-        <v>8.240089594914032</v>
+        <v>7.088819396629405</v>
       </c>
       <c r="D153" t="n">
-        <v>0.3652877213861787</v>
+        <v>0.3471684059899249</v>
       </c>
       <c r="E153" t="n">
-        <v>0.7395829051356761</v>
+        <v>0.8061038795398034</v>
       </c>
     </row>
     <row r="154">
@@ -3049,16 +3049,16 @@
         <v>153</v>
       </c>
       <c r="B154" t="n">
-        <v>15.29840641451958</v>
+        <v>15.80378278574549</v>
       </c>
       <c r="C154" t="n">
-        <v>8.154470837896293</v>
+        <v>6.56772312200329</v>
       </c>
       <c r="D154" t="n">
-        <v>0.2650882012444727</v>
+        <v>0.2498148587926406</v>
       </c>
       <c r="E154" t="n">
-        <v>0.7492388009686088</v>
+        <v>0.8382028802900244</v>
       </c>
     </row>
     <row r="155">
@@ -3066,16 +3066,16 @@
         <v>154</v>
       </c>
       <c r="B155" t="n">
-        <v>11.99920142780651</v>
+        <v>12.26014903097442</v>
       </c>
       <c r="C155" t="n">
-        <v>7.276282678177943</v>
+        <v>6.616110051723341</v>
       </c>
       <c r="D155" t="n">
-        <v>0.4216263006314795</v>
+        <v>0.4129451831153987</v>
       </c>
       <c r="E155" t="n">
-        <v>0.7655664919553713</v>
+        <v>0.805783922565893</v>
       </c>
     </row>
     <row r="156">
@@ -3083,16 +3083,16 @@
         <v>155</v>
       </c>
       <c r="B156" t="n">
-        <v>13.30480188793606</v>
+        <v>13.68784702667082</v>
       </c>
       <c r="C156" t="n">
-        <v>8.005331535694658</v>
+        <v>7.089762788207885</v>
       </c>
       <c r="D156" t="n">
-        <v>0.3569583167938168</v>
+        <v>0.346635914970441</v>
       </c>
       <c r="E156" t="n">
-        <v>0.7342090400015163</v>
+        <v>0.7952583518208846</v>
       </c>
     </row>
     <row r="157">
@@ -3100,16 +3100,16 @@
         <v>156</v>
       </c>
       <c r="B157" t="n">
-        <v>14.77732488362476</v>
+        <v>14.96490937049943</v>
       </c>
       <c r="C157" t="n">
-        <v>7.842344595444109</v>
+        <v>7.284616808153643</v>
       </c>
       <c r="D157" t="n">
-        <v>0.2721095990599306</v>
+        <v>0.2676009231853631</v>
       </c>
       <c r="E157" t="n">
-        <v>0.7623539835712044</v>
+        <v>0.795004694524629</v>
       </c>
     </row>
     <row r="158">
@@ -3151,16 +3151,16 @@
         <v>159</v>
       </c>
       <c r="B160" t="n">
-        <v>13.07974497477213</v>
+        <v>13.2700907533819</v>
       </c>
       <c r="C160" t="n">
-        <v>7.353401668115649</v>
+        <v>6.979430193979307</v>
       </c>
       <c r="D160" t="n">
-        <v>0.4020960940666712</v>
+        <v>0.3960553373194747</v>
       </c>
       <c r="E160" t="n">
-        <v>0.770047798584345</v>
+        <v>0.7918797384372145</v>
       </c>
     </row>
     <row r="161">
@@ -3168,16 +3168,16 @@
         <v>160</v>
       </c>
       <c r="B161" t="n">
-        <v>12.53572688921534</v>
+        <v>12.93549969220402</v>
       </c>
       <c r="C161" t="n">
-        <v>7.932376698371444</v>
+        <v>7.0053671882168</v>
       </c>
       <c r="D161" t="n">
-        <v>0.4554656690056423</v>
+        <v>0.4386542548696603</v>
       </c>
       <c r="E161" t="n">
-        <v>0.7505048034339084</v>
+        <v>0.803549855538309</v>
       </c>
     </row>
     <row r="162">
@@ -3185,16 +3185,16 @@
         <v>161</v>
       </c>
       <c r="B162" t="n">
-        <v>12.42896515982492</v>
+        <v>12.79329427561366</v>
       </c>
       <c r="C162" t="n">
-        <v>7.613374561387984</v>
+        <v>6.891145942142873</v>
       </c>
       <c r="D162" t="n">
-        <v>0.41245404708681</v>
+        <v>0.399478385291347</v>
       </c>
       <c r="E162" t="n">
-        <v>0.7485860168937348</v>
+        <v>0.795155385186165</v>
       </c>
     </row>
     <row r="163">
@@ -3202,16 +3202,16 @@
         <v>162</v>
       </c>
       <c r="B163" t="n">
-        <v>13.4372385211457</v>
+        <v>13.71157696372584</v>
       </c>
       <c r="C163" t="n">
-        <v>7.103076099567764</v>
+        <v>6.424545027850312</v>
       </c>
       <c r="D163" t="n">
-        <v>0.308368616303867</v>
+        <v>0.3012639994669848</v>
       </c>
       <c r="E163" t="n">
-        <v>0.7873684474690028</v>
+        <v>0.8265918614958941</v>
       </c>
     </row>
     <row r="164">
@@ -3219,16 +3219,16 @@
         <v>163</v>
       </c>
       <c r="B164" t="n">
-        <v>13.30986261965338</v>
+        <v>13.61659960161176</v>
       </c>
       <c r="C164" t="n">
-        <v>7.251835666842255</v>
+        <v>6.331723258782341</v>
       </c>
       <c r="D164" t="n">
-        <v>0.364815124763132</v>
+        <v>0.3522309944655418</v>
       </c>
       <c r="E164" t="n">
-        <v>0.7800077493274885</v>
+        <v>0.832433645928543</v>
       </c>
     </row>
     <row r="165">
@@ -3239,7 +3239,7 @@
         <v>15.58994051904389</v>
       </c>
       <c r="C165" t="n">
-        <v>7.587973014252611</v>
+        <v>7.587973014252612</v>
       </c>
       <c r="D165" t="n">
         <v>0.271304954578418</v>
@@ -3253,16 +3253,16 @@
         <v>165</v>
       </c>
       <c r="B166" t="n">
-        <v>15.21587344371911</v>
+        <v>15.35367188309178</v>
       </c>
       <c r="C166" t="n">
-        <v>7.681935881220625</v>
+        <v>7.172337411606658</v>
       </c>
       <c r="D166" t="n">
-        <v>0.3048202619499623</v>
+        <v>0.3017645392352941</v>
       </c>
       <c r="E166" t="n">
-        <v>0.7899411220464859</v>
+        <v>0.8177665128190028</v>
       </c>
     </row>
     <row r="167">
@@ -3270,16 +3270,16 @@
         <v>166</v>
       </c>
       <c r="B167" t="n">
-        <v>14.43790232051503</v>
+        <v>14.56029209946141</v>
       </c>
       <c r="C167" t="n">
-        <v>8.096108049580661</v>
+        <v>7.765063084502064</v>
       </c>
       <c r="D167" t="n">
-        <v>0.2778444786534351</v>
+        <v>0.2740830345795056</v>
       </c>
       <c r="E167" t="n">
-        <v>0.7241546193276723</v>
+        <v>0.7460414119224852</v>
       </c>
     </row>
     <row r="168">
@@ -3287,16 +3287,16 @@
         <v>167</v>
       </c>
       <c r="B168" t="n">
-        <v>11.70233023768724</v>
+        <v>12.17107152457189</v>
       </c>
       <c r="C168" t="n">
-        <v>7.486523042627122</v>
+        <v>6.388068410673079</v>
       </c>
       <c r="D168" t="n">
-        <v>0.4907333351571762</v>
+        <v>0.4704199683514131</v>
       </c>
       <c r="E168" t="n">
-        <v>0.757721565881377</v>
+        <v>0.8243885044349866</v>
       </c>
     </row>
     <row r="169">
@@ -3304,16 +3304,16 @@
         <v>168</v>
       </c>
       <c r="B169" t="n">
-        <v>13.01574552420414</v>
+        <v>13.5056776711435</v>
       </c>
       <c r="C169" t="n">
-        <v>7.844415447953186</v>
+        <v>6.746939671367175</v>
       </c>
       <c r="D169" t="n">
-        <v>0.4109183412210093</v>
+        <v>0.3894531394956662</v>
       </c>
       <c r="E169" t="n">
-        <v>0.7709726917148625</v>
+        <v>0.8338122324750914</v>
       </c>
     </row>
     <row r="170">
@@ -3324,13 +3324,13 @@
         <v>13.95162615149912</v>
       </c>
       <c r="C170" t="n">
-        <v>8.124356929374022</v>
+        <v>8.12435692937402</v>
       </c>
       <c r="D170" t="n">
         <v>0.3438673898735056</v>
       </c>
       <c r="E170" t="n">
-        <v>0.7435751723317594</v>
+        <v>0.7435751723317595</v>
       </c>
     </row>
     <row r="171">
@@ -3338,16 +3338,16 @@
         <v>170</v>
       </c>
       <c r="B171" t="n">
-        <v>12.40743125087083</v>
+        <v>13.13175937864516</v>
       </c>
       <c r="C171" t="n">
-        <v>8.513179787048102</v>
+        <v>7.082230880201658</v>
       </c>
       <c r="D171" t="n">
-        <v>0.4153197594552744</v>
+        <v>0.3914260180813516</v>
       </c>
       <c r="E171" t="n">
-        <v>0.7073714991971917</v>
+        <v>0.7978519781753067</v>
       </c>
     </row>
     <row r="172">
@@ -3355,16 +3355,16 @@
         <v>171</v>
       </c>
       <c r="B172" t="n">
-        <v>14.0302657937645</v>
+        <v>14.48244688564673</v>
       </c>
       <c r="C172" t="n">
-        <v>7.744104674306083</v>
+        <v>6.786095345445925</v>
       </c>
       <c r="D172" t="n">
-        <v>0.3437294139951207</v>
+        <v>0.3315511117038545</v>
       </c>
       <c r="E172" t="n">
-        <v>0.7511621860702034</v>
+        <v>0.8103659761194658</v>
       </c>
     </row>
     <row r="173">
@@ -3372,16 +3372,16 @@
         <v>172</v>
       </c>
       <c r="B173" t="n">
-        <v>14.24786778022173</v>
+        <v>14.39852526193872</v>
       </c>
       <c r="C173" t="n">
-        <v>7.941425398830853</v>
+        <v>7.463873224728165</v>
       </c>
       <c r="D173" t="n">
-        <v>0.3010408484806446</v>
+        <v>0.2982930553309197</v>
       </c>
       <c r="E173" t="n">
-        <v>0.7440531567496922</v>
+        <v>0.7728681120008708</v>
       </c>
     </row>
     <row r="174">
@@ -3389,16 +3389,16 @@
         <v>173</v>
       </c>
       <c r="B174" t="n">
-        <v>14.10203944710562</v>
+        <v>14.71790611534788</v>
       </c>
       <c r="C174" t="n">
-        <v>8.540981715896818</v>
+        <v>7.232760261666885</v>
       </c>
       <c r="D174" t="n">
-        <v>0.3559503769089081</v>
+        <v>0.3335938406607803</v>
       </c>
       <c r="E174" t="n">
-        <v>0.7413945339508763</v>
+        <v>0.8148843223894772</v>
       </c>
     </row>
     <row r="175">
@@ -3415,7 +3415,7 @@
         <v>0.3034539800739753</v>
       </c>
       <c r="E175" t="n">
-        <v>0.7380099916381184</v>
+        <v>0.7380099916381185</v>
       </c>
     </row>
     <row r="176">
@@ -3423,16 +3423,16 @@
         <v>175</v>
       </c>
       <c r="B176" t="n">
-        <v>13.4733556159819</v>
+        <v>13.8065656363362</v>
       </c>
       <c r="C176" t="n">
-        <v>7.773719311628352</v>
+        <v>6.971522710078395</v>
       </c>
       <c r="D176" t="n">
-        <v>0.328467824674239</v>
+        <v>0.3201737504892982</v>
       </c>
       <c r="E176" t="n">
-        <v>0.7481597037286076</v>
+        <v>0.7982921232157775</v>
       </c>
     </row>
     <row r="177">
@@ -3440,16 +3440,16 @@
         <v>176</v>
       </c>
       <c r="B177" t="n">
-        <v>12.9960338948953</v>
+        <v>13.57239854215371</v>
       </c>
       <c r="C177" t="n">
-        <v>9.154286293298263</v>
+        <v>7.415286345539593</v>
       </c>
       <c r="D177" t="n">
-        <v>0.4182160482870212</v>
+        <v>0.3882747390493987</v>
       </c>
       <c r="E177" t="n">
-        <v>0.6978861342971813</v>
+        <v>0.7975045225142077</v>
       </c>
     </row>
     <row r="178">
@@ -3457,16 +3457,16 @@
         <v>177</v>
       </c>
       <c r="B178" t="n">
-        <v>12.82316827292394</v>
+        <v>13.24052034243189</v>
       </c>
       <c r="C178" t="n">
-        <v>7.544982338427958</v>
+        <v>6.656631008095179</v>
       </c>
       <c r="D178" t="n">
-        <v>0.3931144685383696</v>
+        <v>0.3808643982221211</v>
       </c>
       <c r="E178" t="n">
-        <v>0.7492256284636643</v>
+        <v>0.8029879612442867</v>
       </c>
     </row>
     <row r="179">
@@ -3474,16 +3474,16 @@
         <v>178</v>
       </c>
       <c r="B179" t="n">
-        <v>11.45361476955992</v>
+        <v>11.63354132873843</v>
       </c>
       <c r="C179" t="n">
-        <v>7.429782194145393</v>
+        <v>7.01683688518168</v>
       </c>
       <c r="D179" t="n">
-        <v>0.4816762320300441</v>
+        <v>0.4739613406904198</v>
       </c>
       <c r="E179" t="n">
-        <v>0.749559171550474</v>
+        <v>0.7766660756874851</v>
       </c>
     </row>
     <row r="180">
@@ -3491,16 +3491,16 @@
         <v>179</v>
       </c>
       <c r="B180" t="n">
-        <v>12.59851299632679</v>
+        <v>12.65883324363015</v>
       </c>
       <c r="C180" t="n">
-        <v>7.320823022639709</v>
+        <v>7.202130959989869</v>
       </c>
       <c r="D180" t="n">
-        <v>0.4261962905948156</v>
+        <v>0.4251659157490033</v>
       </c>
       <c r="E180" t="n">
-        <v>0.7611698018912293</v>
+        <v>0.7694817267317836</v>
       </c>
     </row>
     <row r="181">
@@ -3525,16 +3525,16 @@
         <v>181</v>
       </c>
       <c r="B182" t="n">
-        <v>14.66241157742073</v>
+        <v>15.12694019900826</v>
       </c>
       <c r="C182" t="n">
-        <v>7.809646550154571</v>
+        <v>6.705516423541257</v>
       </c>
       <c r="D182" t="n">
-        <v>0.2536433489847992</v>
+        <v>0.2435140374303939</v>
       </c>
       <c r="E182" t="n">
-        <v>0.7555305785356673</v>
+        <v>0.821629891441427</v>
       </c>
     </row>
     <row r="183">
@@ -3545,7 +3545,7 @@
         <v>13.63006369989916</v>
       </c>
       <c r="C183" t="n">
-        <v>7.632184169299903</v>
+        <v>7.632184169299901</v>
       </c>
       <c r="D183" t="n">
         <v>0.3960023786393014</v>
@@ -3559,16 +3559,16 @@
         <v>183</v>
       </c>
       <c r="B184" t="n">
-        <v>13.41493365161102</v>
+        <v>13.5424898429622</v>
       </c>
       <c r="C184" t="n">
-        <v>7.89968509961732</v>
+        <v>7.514029256956045</v>
       </c>
       <c r="D184" t="n">
-        <v>0.3295643373489158</v>
+        <v>0.3253100014805991</v>
       </c>
       <c r="E184" t="n">
-        <v>0.7357712325861006</v>
+        <v>0.7616190869635645</v>
       </c>
     </row>
     <row r="185">
@@ -3576,16 +3576,16 @@
         <v>184</v>
       </c>
       <c r="B185" t="n">
-        <v>14.14084126732566</v>
+        <v>14.71114212093931</v>
       </c>
       <c r="C185" t="n">
-        <v>7.965334951215737</v>
+        <v>6.412103677020734</v>
       </c>
       <c r="D185" t="n">
-        <v>0.3197856483254155</v>
+        <v>0.302541215898979</v>
       </c>
       <c r="E185" t="n">
-        <v>0.7580057996478244</v>
+        <v>0.843206256046622</v>
       </c>
     </row>
     <row r="186">
@@ -3593,16 +3593,16 @@
         <v>185</v>
       </c>
       <c r="B186" t="n">
-        <v>11.80046087804467</v>
+        <v>12.01082952576454</v>
       </c>
       <c r="C186" t="n">
-        <v>7.338525895855898</v>
+        <v>6.864967651284616</v>
       </c>
       <c r="D186" t="n">
-        <v>0.426228150180874</v>
+        <v>0.4194019250208115</v>
       </c>
       <c r="E186" t="n">
-        <v>0.7436770121925464</v>
+        <v>0.7775392146551356</v>
       </c>
     </row>
     <row r="187">
@@ -3610,16 +3610,16 @@
         <v>186</v>
       </c>
       <c r="B187" t="n">
-        <v>13.11442872731372</v>
+        <v>13.19300326915702</v>
       </c>
       <c r="C187" t="n">
-        <v>7.619233576043489</v>
+        <v>7.338161075681116</v>
       </c>
       <c r="D187" t="n">
-        <v>0.373463880566933</v>
+        <v>0.3709797583116009</v>
       </c>
       <c r="E187" t="n">
-        <v>0.7538417507543542</v>
+        <v>0.7710641538326414</v>
       </c>
     </row>
     <row r="188">
@@ -3627,16 +3627,16 @@
         <v>187</v>
       </c>
       <c r="B188" t="n">
-        <v>12.97001798225172</v>
+        <v>13.09761717825225</v>
       </c>
       <c r="C188" t="n">
-        <v>7.879465602266554</v>
+        <v>7.577222778948114</v>
       </c>
       <c r="D188" t="n">
-        <v>0.4025902457138394</v>
+        <v>0.3996760153109331</v>
       </c>
       <c r="E188" t="n">
-        <v>0.7422749997134712</v>
+        <v>0.7616166588655309</v>
       </c>
     </row>
     <row r="189">
@@ -3647,13 +3647,13 @@
         <v>12.61527640410144</v>
       </c>
       <c r="C189" t="n">
-        <v>7.693737065609824</v>
+        <v>7.693737065609827</v>
       </c>
       <c r="D189" t="n">
         <v>0.484524188421481</v>
       </c>
       <c r="E189" t="n">
-        <v>0.774043401910375</v>
+        <v>0.7740434019103749</v>
       </c>
     </row>
     <row r="190">
@@ -3661,16 +3661,16 @@
         <v>189</v>
       </c>
       <c r="B190" t="n">
-        <v>13.3344075992854</v>
+        <v>13.89588054984507</v>
       </c>
       <c r="C190" t="n">
-        <v>7.785511868199364</v>
+        <v>6.274149782755011</v>
       </c>
       <c r="D190" t="n">
-        <v>0.3300074000773879</v>
+        <v>0.3081321692341875</v>
       </c>
       <c r="E190" t="n">
-        <v>0.7422631616289626</v>
+        <v>0.8323808376674113</v>
       </c>
     </row>
     <row r="191">
@@ -3678,16 +3678,16 @@
         <v>190</v>
       </c>
       <c r="B191" t="n">
-        <v>13.44556317184911</v>
+        <v>14.00473104823719</v>
       </c>
       <c r="C191" t="n">
-        <v>8.888676883082843</v>
+        <v>7.153712812297964</v>
       </c>
       <c r="D191" t="n">
-        <v>0.4039425458038657</v>
+        <v>0.3808447570625394</v>
       </c>
       <c r="E191" t="n">
-        <v>0.706220573101404</v>
+        <v>0.8077109268969082</v>
       </c>
     </row>
     <row r="192">
@@ -3695,16 +3695,16 @@
         <v>191</v>
       </c>
       <c r="B192" t="n">
-        <v>13.87696870885098</v>
+        <v>14.17826246199452</v>
       </c>
       <c r="C192" t="n">
-        <v>8.976709351586738</v>
+        <v>8.05585792346025</v>
       </c>
       <c r="D192" t="n">
-        <v>0.4127948450424463</v>
+        <v>0.4032508918829075</v>
       </c>
       <c r="E192" t="n">
-        <v>0.7345366648048013</v>
+        <v>0.7835152417979017</v>
       </c>
     </row>
     <row r="193">
@@ -3715,13 +3715,13 @@
         <v>14.42546115483258</v>
       </c>
       <c r="C193" t="n">
-        <v>7.262665498162898</v>
+        <v>7.262665498162893</v>
       </c>
       <c r="D193" t="n">
         <v>0.2410174985433589</v>
       </c>
       <c r="E193" t="n">
-        <v>0.7735605900231096</v>
+        <v>0.77356059002311</v>
       </c>
     </row>
     <row r="194">
@@ -3729,16 +3729,16 @@
         <v>193</v>
       </c>
       <c r="B194" t="n">
-        <v>13.85165356036117</v>
+        <v>13.9084565537914</v>
       </c>
       <c r="C194" t="n">
-        <v>7.561817031746255</v>
+        <v>7.388055259017509</v>
       </c>
       <c r="D194" t="n">
-        <v>0.357715212340984</v>
+        <v>0.3564012577246295</v>
       </c>
       <c r="E194" t="n">
-        <v>0.7769287779444372</v>
+        <v>0.7867192567903115</v>
       </c>
     </row>
     <row r="195">
@@ -3746,16 +3746,16 @@
         <v>194</v>
       </c>
       <c r="B195" t="n">
-        <v>13.59107398505163</v>
+        <v>14.05997772891112</v>
       </c>
       <c r="C195" t="n">
-        <v>7.848086592609582</v>
+        <v>6.398793017102108</v>
       </c>
       <c r="D195" t="n">
-        <v>0.3388075333935845</v>
+        <v>0.3191081838550621</v>
       </c>
       <c r="E195" t="n">
-        <v>0.7664686424089624</v>
+        <v>0.8450857367395268</v>
       </c>
     </row>
     <row r="196">
@@ -3763,16 +3763,16 @@
         <v>195</v>
       </c>
       <c r="B196" t="n">
-        <v>14.38416985791139</v>
+        <v>14.49760947564635</v>
       </c>
       <c r="C196" t="n">
-        <v>7.520501439157446</v>
+        <v>7.16105538626714</v>
       </c>
       <c r="D196" t="n">
-        <v>0.3183891257927968</v>
+        <v>0.3166803395822196</v>
       </c>
       <c r="E196" t="n">
-        <v>0.7813235968502303</v>
+        <v>0.8006035340095661</v>
       </c>
     </row>
     <row r="197">
@@ -3783,13 +3783,13 @@
         <v>14.72956074127043</v>
       </c>
       <c r="C197" t="n">
-        <v>7.557982188941951</v>
+        <v>7.557982188941955</v>
       </c>
       <c r="D197" t="n">
         <v>0.2838928065055847</v>
       </c>
       <c r="E197" t="n">
-        <v>0.7670055152631539</v>
+        <v>0.7670055152631536</v>
       </c>
     </row>
     <row r="198">
@@ -3797,16 +3797,16 @@
         <v>197</v>
       </c>
       <c r="B198" t="n">
-        <v>11.37644902624265</v>
+        <v>11.49871703831836</v>
       </c>
       <c r="C198" t="n">
-        <v>7.14633347131993</v>
+        <v>6.788766489518197</v>
       </c>
       <c r="D198" t="n">
-        <v>0.4971674594901927</v>
+        <v>0.4914785068959564</v>
       </c>
       <c r="E198" t="n">
-        <v>0.7839813804925653</v>
+        <v>0.8049915237151866</v>
       </c>
     </row>
     <row r="199">
@@ -3814,16 +3814,16 @@
         <v>198</v>
       </c>
       <c r="B199" t="n">
-        <v>13.51208020219899</v>
+        <v>13.52579698658953</v>
       </c>
       <c r="C199" t="n">
-        <v>7.448073108395461</v>
+        <v>7.395094120353556</v>
       </c>
       <c r="D199" t="n">
-        <v>0.3878954282124182</v>
+        <v>0.3875487439981623</v>
       </c>
       <c r="E199" t="n">
-        <v>0.7634810434153003</v>
+        <v>0.7668100831737859</v>
       </c>
     </row>
     <row r="200">
@@ -3834,13 +3834,13 @@
         <v>12.49761344928934</v>
       </c>
       <c r="C200" t="n">
-        <v>7.351935458958651</v>
+        <v>7.351935458958653</v>
       </c>
       <c r="D200" t="n">
         <v>0.3841146021768658</v>
       </c>
       <c r="E200" t="n">
-        <v>0.7525302276725958</v>
+        <v>0.7525302276725956</v>
       </c>
     </row>
     <row r="201">
@@ -3851,13 +3851,13 @@
         <v>13.65755760308468</v>
       </c>
       <c r="C201" t="n">
-        <v>7.322709995489048</v>
+        <v>7.322709995489046</v>
       </c>
       <c r="D201" t="n">
         <v>0.3748210955703256</v>
       </c>
       <c r="E201" t="n">
-        <v>0.77406090651335</v>
+        <v>0.7740609065133501</v>
       </c>
     </row>
   </sheetData>
